--- a/Code/Results/Cases/Case_5_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008379238483617</v>
+        <v>1.034145735084474</v>
       </c>
       <c r="D2">
-        <v>1.026100634348614</v>
+        <v>1.041121413211603</v>
       </c>
       <c r="E2">
-        <v>1.013671646464509</v>
+        <v>1.033367690110372</v>
       </c>
       <c r="F2">
-        <v>1.026873492903467</v>
+        <v>1.048459130576463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045182892348191</v>
+        <v>1.0375667191377</v>
       </c>
       <c r="J2">
-        <v>1.030312184118197</v>
+        <v>1.039266581152778</v>
       </c>
       <c r="K2">
-        <v>1.037207938127833</v>
+        <v>1.043901824984075</v>
       </c>
       <c r="L2">
-        <v>1.024943743529223</v>
+        <v>1.036170242187792</v>
       </c>
       <c r="M2">
-        <v>1.037970714530513</v>
+        <v>1.051218917063068</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012305502769661</v>
+        <v>1.034984813698986</v>
       </c>
       <c r="D3">
-        <v>1.029021527047071</v>
+        <v>1.04177249187912</v>
       </c>
       <c r="E3">
-        <v>1.016772630758508</v>
+        <v>1.034078103663789</v>
       </c>
       <c r="F3">
-        <v>1.030493665131913</v>
+        <v>1.049292327645793</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046245482880936</v>
+        <v>1.037749268715071</v>
       </c>
       <c r="J3">
-        <v>1.03246623737152</v>
+        <v>1.039749228151799</v>
       </c>
       <c r="K3">
-        <v>1.039296064595929</v>
+        <v>1.044363885799193</v>
       </c>
       <c r="L3">
-        <v>1.027195307997182</v>
+        <v>1.036689884545046</v>
       </c>
       <c r="M3">
-        <v>1.04075069228764</v>
+        <v>1.051864108976005</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014800119510196</v>
+        <v>1.035528430544894</v>
       </c>
       <c r="D4">
-        <v>1.030880624259469</v>
+        <v>1.042194381532057</v>
       </c>
       <c r="E4">
-        <v>1.018748646987167</v>
+        <v>1.034538749150987</v>
       </c>
       <c r="F4">
-        <v>1.032799505782044</v>
+        <v>1.049832536580011</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046912645809415</v>
+        <v>1.037866529989449</v>
       </c>
       <c r="J4">
-        <v>1.033832666814791</v>
+        <v>1.04006154793407</v>
       </c>
       <c r="K4">
-        <v>1.040620103108109</v>
+        <v>1.044662781547999</v>
       </c>
       <c r="L4">
-        <v>1.028625938300174</v>
+        <v>1.037026414827871</v>
       </c>
       <c r="M4">
-        <v>1.042517552168511</v>
+        <v>1.052282016260928</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015838195902881</v>
+        <v>1.035757127441987</v>
       </c>
       <c r="D5">
-        <v>1.031654985336782</v>
+        <v>1.042371885355157</v>
       </c>
       <c r="E5">
-        <v>1.01957226557172</v>
+        <v>1.034732632596459</v>
       </c>
       <c r="F5">
-        <v>1.033760364930701</v>
+        <v>1.050059895729283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04718832644104</v>
+        <v>1.037915619906845</v>
       </c>
       <c r="J5">
-        <v>1.034400722585681</v>
+        <v>1.04019284943908</v>
       </c>
       <c r="K5">
-        <v>1.041170392805793</v>
+        <v>1.044788414809556</v>
       </c>
       <c r="L5">
-        <v>1.029221247017681</v>
+        <v>1.037167959449952</v>
       </c>
       <c r="M5">
-        <v>1.043252889449204</v>
+        <v>1.052457804568791</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016011877904995</v>
+        <v>1.035795536013313</v>
       </c>
       <c r="D6">
-        <v>1.031784587165818</v>
+        <v>1.042401697268221</v>
       </c>
       <c r="E6">
-        <v>1.01971014443517</v>
+        <v>1.034765199801361</v>
       </c>
       <c r="F6">
-        <v>1.033921205337641</v>
+        <v>1.05009808524513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04723433581925</v>
+        <v>1.03792385017694</v>
       </c>
       <c r="J6">
-        <v>1.034495731547599</v>
+        <v>1.040214895634809</v>
       </c>
       <c r="K6">
-        <v>1.041262421738338</v>
+        <v>1.044809507828392</v>
       </c>
       <c r="L6">
-        <v>1.029320847244895</v>
+        <v>1.037191729320088</v>
       </c>
       <c r="M6">
-        <v>1.043375924669127</v>
+        <v>1.052487326020141</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014814031789007</v>
+        <v>1.035531485775947</v>
       </c>
       <c r="D7">
-        <v>1.030890999357269</v>
+        <v>1.042196752793438</v>
       </c>
       <c r="E7">
-        <v>1.018759679839125</v>
+        <v>1.034541338937182</v>
       </c>
       <c r="F7">
-        <v>1.032812377956315</v>
+        <v>1.049835573563364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046916348190115</v>
+        <v>1.037867186744496</v>
       </c>
       <c r="J7">
-        <v>1.033840282102056</v>
+        <v>1.040063302383921</v>
       </c>
       <c r="K7">
-        <v>1.04062748079955</v>
+        <v>1.044664460355904</v>
       </c>
       <c r="L7">
-        <v>1.028633916711509</v>
+        <v>1.037028305891389</v>
       </c>
       <c r="M7">
-        <v>1.042527406792784</v>
+        <v>1.052284364761709</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009715857551021</v>
+        <v>1.03442916447425</v>
       </c>
       <c r="D8">
-        <v>1.027094286712632</v>
+        <v>1.041341323347627</v>
       </c>
       <c r="E8">
-        <v>1.014726088665676</v>
+        <v>1.03360757772945</v>
       </c>
       <c r="F8">
-        <v>1.028104695251153</v>
+        <v>1.048740489711904</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045546280157111</v>
+        <v>1.037628590365844</v>
       </c>
       <c r="J8">
-        <v>1.031045928959528</v>
+        <v>1.039429690099739</v>
       </c>
       <c r="K8">
-        <v>1.037919341568123</v>
+        <v>1.044057998126678</v>
       </c>
       <c r="L8">
-        <v>1.025710213049336</v>
+        <v>1.03634579750265</v>
       </c>
       <c r="M8">
-        <v>1.038916966140651</v>
+        <v>1.051436873702178</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000364490833338</v>
+        <v>1.032491991527006</v>
       </c>
       <c r="D9">
-        <v>1.020157921015145</v>
+        <v>1.039838608669183</v>
       </c>
       <c r="E9">
-        <v>1.00737472543812</v>
+        <v>1.031969608269257</v>
       </c>
       <c r="F9">
-        <v>1.01951629821137</v>
+        <v>1.046819130519203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042971521001762</v>
+        <v>1.037201594271539</v>
       </c>
       <c r="J9">
-        <v>1.025904384551982</v>
+        <v>1.038313355872042</v>
       </c>
       <c r="K9">
-        <v>1.0329322019932</v>
+        <v>1.042988715049441</v>
       </c>
       <c r="L9">
-        <v>1.020349275368589</v>
+        <v>1.03514539000193</v>
       </c>
       <c r="M9">
-        <v>1.032300478353253</v>
+        <v>1.049946814174889</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9938596022706826</v>
+        <v>1.031204177725442</v>
       </c>
       <c r="D10">
-        <v>1.015354595291424</v>
+        <v>1.0388400404941</v>
       </c>
       <c r="E10">
-        <v>1.002295545621305</v>
+        <v>1.030882738973657</v>
       </c>
       <c r="F10">
-        <v>1.013575989586297</v>
+        <v>1.045543935317518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041140821800354</v>
+        <v>1.036912563221056</v>
       </c>
       <c r="J10">
-        <v>1.022318979743198</v>
+        <v>1.037569325933637</v>
       </c>
       <c r="K10">
-        <v>1.029452043625808</v>
+        <v>1.042275522532921</v>
       </c>
       <c r="L10">
-        <v>1.016623476608239</v>
+        <v>1.034346721107686</v>
       </c>
       <c r="M10">
-        <v>1.027704376627774</v>
+        <v>1.048955777548081</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9909731380436855</v>
+        <v>1.030647423240082</v>
       </c>
       <c r="D11">
-        <v>1.013228989698154</v>
+        <v>1.038408441090867</v>
       </c>
       <c r="E11">
-        <v>1.000050493246031</v>
+        <v>1.030413347974077</v>
       </c>
       <c r="F11">
-        <v>1.010948616754132</v>
+        <v>1.04499314124028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04031952864591</v>
+        <v>1.036786382818682</v>
       </c>
       <c r="J11">
-        <v>1.020726327178734</v>
+        <v>1.037247214872848</v>
       </c>
       <c r="K11">
-        <v>1.027905665666903</v>
+        <v>1.041966639057712</v>
       </c>
       <c r="L11">
-        <v>1.014971457401181</v>
+        <v>1.034001286491819</v>
       </c>
       <c r="M11">
-        <v>1.025666970274129</v>
+        <v>1.048527222797918</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9898899819157311</v>
+        <v>1.030440753337594</v>
       </c>
       <c r="D12">
-        <v>1.01243228110903</v>
+        <v>1.038248245973002</v>
       </c>
       <c r="E12">
-        <v>0.999209399564204</v>
+        <v>1.030239182033228</v>
       </c>
       <c r="F12">
-        <v>1.009964020635709</v>
+        <v>1.04478876022975</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04001003276621</v>
+        <v>1.03673936006104</v>
       </c>
       <c r="J12">
-        <v>1.020128465746981</v>
+        <v>1.03712757863664</v>
       </c>
       <c r="K12">
-        <v>1.02732511226416</v>
+        <v>1.04185189735154</v>
       </c>
       <c r="L12">
-        <v>1.014351761921019</v>
+        <v>1.033873037361507</v>
       </c>
       <c r="M12">
-        <v>1.024902783453621</v>
+        <v>1.048368125905095</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9901228286012689</v>
+        <v>1.030485078664856</v>
       </c>
       <c r="D13">
-        <v>1.012603506878913</v>
+        <v>1.038282602904351</v>
       </c>
       <c r="E13">
-        <v>0.9993901471542339</v>
+        <v>1.030276532736337</v>
       </c>
       <c r="F13">
-        <v>1.010175618692571</v>
+        <v>1.044832591185683</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040076623467049</v>
+        <v>1.036749453547648</v>
       </c>
       <c r="J13">
-        <v>1.020256997339278</v>
+        <v>1.037153240534779</v>
       </c>
       <c r="K13">
-        <v>1.027449925577674</v>
+        <v>1.041876510205936</v>
       </c>
       <c r="L13">
-        <v>1.014484967097543</v>
+        <v>1.033900544467079</v>
       </c>
       <c r="M13">
-        <v>1.025067044185849</v>
+        <v>1.048402248745484</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9908838313512979</v>
+        <v>1.030630337108294</v>
       </c>
       <c r="D14">
-        <v>1.013163281413365</v>
+        <v>1.038395196851407</v>
       </c>
       <c r="E14">
-        <v>0.9999811165302204</v>
+        <v>1.030398947541945</v>
       </c>
       <c r="F14">
-        <v>1.010867408943784</v>
+        <v>1.044976242778483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04029403682562</v>
+        <v>1.036782499034933</v>
       </c>
       <c r="J14">
-        <v>1.020677037344464</v>
+        <v>1.037237325489486</v>
       </c>
       <c r="K14">
-        <v>1.027857803995532</v>
+        <v>1.041957154640755</v>
       </c>
       <c r="L14">
-        <v>1.014920358303071</v>
+        <v>1.033990684132857</v>
       </c>
       <c r="M14">
-        <v>1.025603955189242</v>
+        <v>1.048514070005958</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9913512376582974</v>
+        <v>1.030719853370326</v>
       </c>
       <c r="D15">
-        <v>1.013507218636587</v>
+        <v>1.038464585670248</v>
       </c>
       <c r="E15">
-        <v>1.000344271109474</v>
+        <v>1.030474396150183</v>
       </c>
       <c r="F15">
-        <v>1.01129248270399</v>
+        <v>1.045064778946046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040427401016881</v>
+        <v>1.036802839099928</v>
       </c>
       <c r="J15">
-        <v>1.02093499813659</v>
+        <v>1.037289134390134</v>
       </c>
       <c r="K15">
-        <v>1.028108287915062</v>
+        <v>1.042006841235321</v>
       </c>
       <c r="L15">
-        <v>1.015187806384404</v>
+        <v>1.034046230237576</v>
       </c>
       <c r="M15">
-        <v>1.025933773422708</v>
+        <v>1.048582978410002</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9940496540592236</v>
+        <v>1.031241146316338</v>
       </c>
       <c r="D16">
-        <v>1.015494676529201</v>
+        <v>1.038868701068425</v>
       </c>
       <c r="E16">
-        <v>1.002443552697298</v>
+        <v>1.03091391699711</v>
       </c>
       <c r="F16">
-        <v>1.013749164905911</v>
+        <v>1.045580518825097</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041194714571728</v>
+        <v>1.036920915799939</v>
       </c>
       <c r="J16">
-        <v>1.022423812160858</v>
+        <v>1.037590704735486</v>
       </c>
       <c r="K16">
-        <v>1.029553820925578</v>
+        <v>1.042296020827678</v>
       </c>
       <c r="L16">
-        <v>1.01673227928765</v>
+        <v>1.034369654894663</v>
       </c>
       <c r="M16">
-        <v>1.027838571343801</v>
+        <v>1.048984231482544</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957232617889639</v>
+        <v>1.031568375699315</v>
       </c>
       <c r="D17">
-        <v>1.016728910266865</v>
+        <v>1.039122404044153</v>
       </c>
       <c r="E17">
-        <v>1.003747918583678</v>
+        <v>1.031189947611779</v>
       </c>
       <c r="F17">
-        <v>1.015275139936274</v>
+        <v>1.045904398077776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041668282641325</v>
+        <v>1.036994707460124</v>
       </c>
       <c r="J17">
-        <v>1.023346786633098</v>
+        <v>1.037779888521674</v>
       </c>
       <c r="K17">
-        <v>1.030449844010532</v>
+        <v>1.042477398716987</v>
       </c>
       <c r="L17">
-        <v>1.01769055079281</v>
+        <v>1.034572637208087</v>
       </c>
       <c r="M17">
-        <v>1.029020538564046</v>
+        <v>1.049236080905341</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9966927495530621</v>
+        <v>1.031759327604229</v>
       </c>
       <c r="D18">
-        <v>1.01744442589589</v>
+        <v>1.039270460527684</v>
       </c>
       <c r="E18">
-        <v>1.004504342305566</v>
+        <v>1.031351070205123</v>
       </c>
       <c r="F18">
-        <v>1.016159918225659</v>
+        <v>1.046093443787905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041941758115249</v>
+        <v>1.037037649647065</v>
       </c>
       <c r="J18">
-        <v>1.023881285713868</v>
+        <v>1.037890241809559</v>
       </c>
       <c r="K18">
-        <v>1.030968689555948</v>
+        <v>1.042583186873292</v>
       </c>
       <c r="L18">
-        <v>1.018245775272186</v>
+        <v>1.034691071304335</v>
       </c>
       <c r="M18">
-        <v>1.029705421063938</v>
+        <v>1.049383035358768</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9970221984282801</v>
+        <v>1.031824451557762</v>
       </c>
       <c r="D19">
-        <v>1.017687661904198</v>
+        <v>1.039320956768278</v>
       </c>
       <c r="E19">
-        <v>1.004761527627012</v>
+        <v>1.031406028905587</v>
       </c>
       <c r="F19">
-        <v>1.016460717546357</v>
+        <v>1.046157925889025</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042034543946084</v>
+        <v>1.037052274968542</v>
       </c>
       <c r="J19">
-        <v>1.024062889273504</v>
+        <v>1.037927870336363</v>
       </c>
       <c r="K19">
-        <v>1.031144966574607</v>
+        <v>1.042619256757662</v>
       </c>
       <c r="L19">
-        <v>1.018434468840749</v>
+        <v>1.034731460663519</v>
       </c>
       <c r="M19">
-        <v>1.029938187315964</v>
+        <v>1.049433152298162</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955443960316185</v>
+        <v>1.031533258326647</v>
       </c>
       <c r="D20">
-        <v>1.016596945022245</v>
+        <v>1.039095176259081</v>
       </c>
       <c r="E20">
-        <v>1.003608428820824</v>
+        <v>1.031160319857517</v>
       </c>
       <c r="F20">
-        <v>1.015111967862489</v>
+        <v>1.045869635187516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041617758545236</v>
+        <v>1.036986800573049</v>
       </c>
       <c r="J20">
-        <v>1.023248160827475</v>
+        <v>1.037759590304527</v>
       </c>
       <c r="K20">
-        <v>1.030354102830384</v>
+        <v>1.042457939248397</v>
       </c>
       <c r="L20">
-        <v>1.017588123731958</v>
+        <v>1.034550855191512</v>
       </c>
       <c r="M20">
-        <v>1.028894196288151</v>
+        <v>1.049209054150242</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9906600427464682</v>
+        <v>1.030587558418289</v>
       </c>
       <c r="D21">
-        <v>1.012998641962763</v>
+        <v>1.038362037409663</v>
       </c>
       <c r="E21">
-        <v>0.9998072915952559</v>
+        <v>1.030362894261656</v>
       </c>
       <c r="F21">
-        <v>1.010663936552057</v>
+        <v>1.044933935194754</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040230137460314</v>
+        <v>1.036772772200736</v>
       </c>
       <c r="J21">
-        <v>1.020553521432563</v>
+        <v>1.037212564275208</v>
       </c>
       <c r="K21">
-        <v>1.027737865949119</v>
+        <v>1.041933407092136</v>
       </c>
       <c r="L21">
-        <v>1.014792315816578</v>
+        <v>1.033964138561788</v>
       </c>
       <c r="M21">
-        <v>1.025446055166114</v>
+        <v>1.048481139004957</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9875251698218189</v>
+        <v>1.029993732594531</v>
       </c>
       <c r="D22">
-        <v>1.010694639988558</v>
+        <v>1.037901779793103</v>
       </c>
       <c r="E22">
-        <v>0.9973756507560236</v>
+        <v>1.029862602705248</v>
       </c>
       <c r="F22">
-        <v>1.007816898856918</v>
+        <v>1.044346830408847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039331975251679</v>
+        <v>1.036637314942869</v>
       </c>
       <c r="J22">
-        <v>1.018822831162248</v>
+        <v>1.036868686698398</v>
       </c>
       <c r="K22">
-        <v>1.026057169984092</v>
+        <v>1.041603563640607</v>
       </c>
       <c r="L22">
-        <v>1.012999276405557</v>
+        <v>1.033595598234843</v>
       </c>
       <c r="M22">
-        <v>1.023235075842825</v>
+        <v>1.048023976499875</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9891932583878165</v>
+        <v>1.030308457041042</v>
       </c>
       <c r="D23">
-        <v>1.011920080957314</v>
+        <v>1.038145704486191</v>
       </c>
       <c r="E23">
-        <v>0.9986687718331551</v>
+        <v>1.030127713572747</v>
       </c>
       <c r="F23">
-        <v>1.009331076666947</v>
+        <v>1.044657950683712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039810592506683</v>
+        <v>1.036709207437779</v>
       </c>
       <c r="J23">
-        <v>1.019743845556143</v>
+        <v>1.037050976637711</v>
       </c>
       <c r="K23">
-        <v>1.026951610188727</v>
+        <v>1.041778424115215</v>
       </c>
       <c r="L23">
-        <v>1.013953222670089</v>
+        <v>1.033790934620412</v>
       </c>
       <c r="M23">
-        <v>1.024411338884699</v>
+        <v>1.048266278406111</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9956252384345142</v>
+        <v>1.03154912609473</v>
       </c>
       <c r="D24">
-        <v>1.01665658798786</v>
+        <v>1.039107479089089</v>
       </c>
       <c r="E24">
-        <v>1.003671471787425</v>
+        <v>1.031173706998133</v>
       </c>
       <c r="F24">
-        <v>1.015185714641493</v>
+        <v>1.045885342632375</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041640596694217</v>
+        <v>1.036990373661694</v>
       </c>
       <c r="J24">
-        <v>1.023292737483219</v>
+        <v>1.037768762178035</v>
       </c>
       <c r="K24">
-        <v>1.030397375842796</v>
+        <v>1.042466732164878</v>
       </c>
       <c r="L24">
-        <v>1.01763441758752</v>
+        <v>1.03456069743014</v>
       </c>
       <c r="M24">
-        <v>1.028951298929567</v>
+        <v>1.04922126620796</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002827951295607</v>
+        <v>1.032992163812299</v>
       </c>
       <c r="D25">
-        <v>1.021981659095303</v>
+        <v>1.040226532950654</v>
       </c>
       <c r="E25">
-        <v>1.009305545536505</v>
+        <v>1.032392169956017</v>
       </c>
       <c r="F25">
-        <v>1.021773086535697</v>
+        <v>1.047314849980037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043656804716633</v>
+        <v>1.037312755847516</v>
       </c>
       <c r="J25">
-        <v>1.02726051696976</v>
+        <v>1.038601926709941</v>
       </c>
       <c r="K25">
-        <v>1.034248059190819</v>
+        <v>1.043265215573219</v>
       </c>
       <c r="L25">
-        <v>1.021761102186626</v>
+        <v>1.035455447736154</v>
       </c>
       <c r="M25">
-        <v>1.034042550787334</v>
+        <v>1.050331625711858</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034145735084474</v>
+        <v>1.008379238483617</v>
       </c>
       <c r="D2">
-        <v>1.041121413211603</v>
+        <v>1.026100634348614</v>
       </c>
       <c r="E2">
-        <v>1.033367690110372</v>
+        <v>1.013671646464509</v>
       </c>
       <c r="F2">
-        <v>1.048459130576463</v>
+        <v>1.026873492903467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0375667191377</v>
+        <v>1.045182892348191</v>
       </c>
       <c r="J2">
-        <v>1.039266581152778</v>
+        <v>1.030312184118197</v>
       </c>
       <c r="K2">
-        <v>1.043901824984075</v>
+        <v>1.037207938127833</v>
       </c>
       <c r="L2">
-        <v>1.036170242187792</v>
+        <v>1.024943743529223</v>
       </c>
       <c r="M2">
-        <v>1.051218917063068</v>
+        <v>1.037970714530513</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034984813698986</v>
+        <v>1.012305502769661</v>
       </c>
       <c r="D3">
-        <v>1.04177249187912</v>
+        <v>1.029021527047072</v>
       </c>
       <c r="E3">
-        <v>1.034078103663789</v>
+        <v>1.016772630758508</v>
       </c>
       <c r="F3">
-        <v>1.049292327645793</v>
+        <v>1.030493665131913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037749268715071</v>
+        <v>1.046245482880936</v>
       </c>
       <c r="J3">
-        <v>1.039749228151799</v>
+        <v>1.03246623737152</v>
       </c>
       <c r="K3">
-        <v>1.044363885799193</v>
+        <v>1.039296064595929</v>
       </c>
       <c r="L3">
-        <v>1.036689884545046</v>
+        <v>1.027195307997183</v>
       </c>
       <c r="M3">
-        <v>1.051864108976005</v>
+        <v>1.040750692287641</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035528430544894</v>
+        <v>1.014800119510196</v>
       </c>
       <c r="D4">
-        <v>1.042194381532057</v>
+        <v>1.030880624259469</v>
       </c>
       <c r="E4">
-        <v>1.034538749150987</v>
+        <v>1.018748646987166</v>
       </c>
       <c r="F4">
-        <v>1.049832536580011</v>
+        <v>1.032799505782043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037866529989449</v>
+        <v>1.046912645809415</v>
       </c>
       <c r="J4">
-        <v>1.04006154793407</v>
+        <v>1.03383266681479</v>
       </c>
       <c r="K4">
-        <v>1.044662781547999</v>
+        <v>1.040620103108109</v>
       </c>
       <c r="L4">
-        <v>1.037026414827871</v>
+        <v>1.028625938300173</v>
       </c>
       <c r="M4">
-        <v>1.052282016260928</v>
+        <v>1.04251755216851</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035757127441987</v>
+        <v>1.015838195902881</v>
       </c>
       <c r="D5">
-        <v>1.042371885355157</v>
+        <v>1.031654985336782</v>
       </c>
       <c r="E5">
-        <v>1.034732632596459</v>
+        <v>1.01957226557172</v>
       </c>
       <c r="F5">
-        <v>1.050059895729283</v>
+        <v>1.033760364930701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037915619906845</v>
+        <v>1.04718832644104</v>
       </c>
       <c r="J5">
-        <v>1.04019284943908</v>
+        <v>1.034400722585681</v>
       </c>
       <c r="K5">
-        <v>1.044788414809556</v>
+        <v>1.041170392805794</v>
       </c>
       <c r="L5">
-        <v>1.037167959449952</v>
+        <v>1.029221247017681</v>
       </c>
       <c r="M5">
-        <v>1.052457804568791</v>
+        <v>1.043252889449204</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035795536013313</v>
+        <v>1.016011877904996</v>
       </c>
       <c r="D6">
-        <v>1.042401697268221</v>
+        <v>1.031784587165819</v>
       </c>
       <c r="E6">
-        <v>1.034765199801361</v>
+        <v>1.019710144435171</v>
       </c>
       <c r="F6">
-        <v>1.05009808524513</v>
+        <v>1.033921205337641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03792385017694</v>
+        <v>1.04723433581925</v>
       </c>
       <c r="J6">
-        <v>1.040214895634809</v>
+        <v>1.0344957315476</v>
       </c>
       <c r="K6">
-        <v>1.044809507828392</v>
+        <v>1.041262421738339</v>
       </c>
       <c r="L6">
-        <v>1.037191729320088</v>
+        <v>1.029320847244895</v>
       </c>
       <c r="M6">
-        <v>1.052487326020141</v>
+        <v>1.043375924669127</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035531485775947</v>
+        <v>1.014814031789007</v>
       </c>
       <c r="D7">
-        <v>1.042196752793438</v>
+        <v>1.030890999357268</v>
       </c>
       <c r="E7">
-        <v>1.034541338937182</v>
+        <v>1.018759679839125</v>
       </c>
       <c r="F7">
-        <v>1.049835573563364</v>
+        <v>1.032812377956315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037867186744496</v>
+        <v>1.046916348190115</v>
       </c>
       <c r="J7">
-        <v>1.040063302383921</v>
+        <v>1.033840282102056</v>
       </c>
       <c r="K7">
-        <v>1.044664460355904</v>
+        <v>1.04062748079955</v>
       </c>
       <c r="L7">
-        <v>1.037028305891389</v>
+        <v>1.028633916711508</v>
       </c>
       <c r="M7">
-        <v>1.052284364761709</v>
+        <v>1.042527406792784</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03442916447425</v>
+        <v>1.009715857551022</v>
       </c>
       <c r="D8">
-        <v>1.041341323347627</v>
+        <v>1.027094286712633</v>
       </c>
       <c r="E8">
-        <v>1.03360757772945</v>
+        <v>1.014726088665678</v>
       </c>
       <c r="F8">
-        <v>1.048740489711904</v>
+        <v>1.028104695251154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037628590365844</v>
+        <v>1.045546280157112</v>
       </c>
       <c r="J8">
-        <v>1.039429690099739</v>
+        <v>1.031045928959529</v>
       </c>
       <c r="K8">
-        <v>1.044057998126678</v>
+        <v>1.037919341568124</v>
       </c>
       <c r="L8">
-        <v>1.03634579750265</v>
+        <v>1.025710213049337</v>
       </c>
       <c r="M8">
-        <v>1.051436873702178</v>
+        <v>1.038916966140652</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032491991527006</v>
+        <v>1.000364490833338</v>
       </c>
       <c r="D9">
-        <v>1.039838608669183</v>
+        <v>1.020157921015145</v>
       </c>
       <c r="E9">
-        <v>1.031969608269257</v>
+        <v>1.00737472543812</v>
       </c>
       <c r="F9">
-        <v>1.046819130519203</v>
+        <v>1.01951629821137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037201594271539</v>
+        <v>1.042971521001762</v>
       </c>
       <c r="J9">
-        <v>1.038313355872042</v>
+        <v>1.025904384551982</v>
       </c>
       <c r="K9">
-        <v>1.042988715049441</v>
+        <v>1.0329322019932</v>
       </c>
       <c r="L9">
-        <v>1.03514539000193</v>
+        <v>1.020349275368589</v>
       </c>
       <c r="M9">
-        <v>1.049946814174889</v>
+        <v>1.032300478353253</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031204177725442</v>
+        <v>0.993859602270681</v>
       </c>
       <c r="D10">
-        <v>1.0388400404941</v>
+        <v>1.015354595291422</v>
       </c>
       <c r="E10">
-        <v>1.030882738973657</v>
+        <v>1.002295545621303</v>
       </c>
       <c r="F10">
-        <v>1.045543935317518</v>
+        <v>1.013575989586295</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036912563221056</v>
+        <v>1.041140821800353</v>
       </c>
       <c r="J10">
-        <v>1.037569325933637</v>
+        <v>1.022318979743196</v>
       </c>
       <c r="K10">
-        <v>1.042275522532921</v>
+        <v>1.029452043625807</v>
       </c>
       <c r="L10">
-        <v>1.034346721107686</v>
+        <v>1.016623476608238</v>
       </c>
       <c r="M10">
-        <v>1.048955777548081</v>
+        <v>1.027704376627773</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030647423240082</v>
+        <v>0.9909731380436843</v>
       </c>
       <c r="D11">
-        <v>1.038408441090867</v>
+        <v>1.013228989698153</v>
       </c>
       <c r="E11">
-        <v>1.030413347974077</v>
+        <v>1.00005049324603</v>
       </c>
       <c r="F11">
-        <v>1.04499314124028</v>
+        <v>1.010948616754131</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036786382818682</v>
+        <v>1.040319528645909</v>
       </c>
       <c r="J11">
-        <v>1.037247214872848</v>
+        <v>1.020726327178733</v>
       </c>
       <c r="K11">
-        <v>1.041966639057712</v>
+        <v>1.027905665666902</v>
       </c>
       <c r="L11">
-        <v>1.034001286491819</v>
+        <v>1.01497145740118</v>
       </c>
       <c r="M11">
-        <v>1.048527222797918</v>
+        <v>1.025666970274127</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030440753337594</v>
+        <v>0.989889981915731</v>
       </c>
       <c r="D12">
-        <v>1.038248245973002</v>
+        <v>1.01243228110903</v>
       </c>
       <c r="E12">
-        <v>1.030239182033228</v>
+        <v>0.9992093995642034</v>
       </c>
       <c r="F12">
-        <v>1.04478876022975</v>
+        <v>1.009964020635709</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03673936006104</v>
+        <v>1.040010032766209</v>
       </c>
       <c r="J12">
-        <v>1.03712757863664</v>
+        <v>1.02012846574698</v>
       </c>
       <c r="K12">
-        <v>1.04185189735154</v>
+        <v>1.02732511226416</v>
       </c>
       <c r="L12">
-        <v>1.033873037361507</v>
+        <v>1.014351761921019</v>
       </c>
       <c r="M12">
-        <v>1.048368125905095</v>
+        <v>1.024902783453621</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030485078664856</v>
+        <v>0.990122828601268</v>
       </c>
       <c r="D13">
-        <v>1.038282602904351</v>
+        <v>1.012603506878913</v>
       </c>
       <c r="E13">
-        <v>1.030276532736337</v>
+        <v>0.9993901471542332</v>
       </c>
       <c r="F13">
-        <v>1.044832591185683</v>
+        <v>1.010175618692571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036749453547648</v>
+        <v>1.040076623467048</v>
       </c>
       <c r="J13">
-        <v>1.037153240534779</v>
+        <v>1.020256997339277</v>
       </c>
       <c r="K13">
-        <v>1.041876510205936</v>
+        <v>1.027449925577673</v>
       </c>
       <c r="L13">
-        <v>1.033900544467079</v>
+        <v>1.014484967097542</v>
       </c>
       <c r="M13">
-        <v>1.048402248745484</v>
+        <v>1.025067044185848</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030630337108294</v>
+        <v>0.9908838313512974</v>
       </c>
       <c r="D14">
-        <v>1.038395196851407</v>
+        <v>1.013163281413365</v>
       </c>
       <c r="E14">
-        <v>1.030398947541945</v>
+        <v>0.9999811165302198</v>
       </c>
       <c r="F14">
-        <v>1.044976242778483</v>
+        <v>1.010867408943783</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036782499034933</v>
+        <v>1.040294036825619</v>
       </c>
       <c r="J14">
-        <v>1.037237325489486</v>
+        <v>1.020677037344464</v>
       </c>
       <c r="K14">
-        <v>1.041957154640755</v>
+        <v>1.027857803995532</v>
       </c>
       <c r="L14">
-        <v>1.033990684132857</v>
+        <v>1.014920358303071</v>
       </c>
       <c r="M14">
-        <v>1.048514070005958</v>
+        <v>1.025603955189242</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030719853370326</v>
+        <v>0.9913512376582972</v>
       </c>
       <c r="D15">
-        <v>1.038464585670248</v>
+        <v>1.013507218636587</v>
       </c>
       <c r="E15">
-        <v>1.030474396150183</v>
+        <v>1.000344271109474</v>
       </c>
       <c r="F15">
-        <v>1.045064778946046</v>
+        <v>1.01129248270399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036802839099928</v>
+        <v>1.040427401016881</v>
       </c>
       <c r="J15">
-        <v>1.037289134390134</v>
+        <v>1.02093499813659</v>
       </c>
       <c r="K15">
-        <v>1.042006841235321</v>
+        <v>1.028108287915062</v>
       </c>
       <c r="L15">
-        <v>1.034046230237576</v>
+        <v>1.015187806384403</v>
       </c>
       <c r="M15">
-        <v>1.048582978410002</v>
+        <v>1.025933773422708</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031241146316338</v>
+        <v>0.9940496540592236</v>
       </c>
       <c r="D16">
-        <v>1.038868701068425</v>
+        <v>1.015494676529201</v>
       </c>
       <c r="E16">
-        <v>1.03091391699711</v>
+        <v>1.002443552697298</v>
       </c>
       <c r="F16">
-        <v>1.045580518825097</v>
+        <v>1.013749164905911</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036920915799939</v>
+        <v>1.041194714571728</v>
       </c>
       <c r="J16">
-        <v>1.037590704735486</v>
+        <v>1.022423812160858</v>
       </c>
       <c r="K16">
-        <v>1.042296020827678</v>
+        <v>1.029553820925578</v>
       </c>
       <c r="L16">
-        <v>1.034369654894663</v>
+        <v>1.016732279287649</v>
       </c>
       <c r="M16">
-        <v>1.048984231482544</v>
+        <v>1.027838571343801</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031568375699315</v>
+        <v>0.9957232617889628</v>
       </c>
       <c r="D17">
-        <v>1.039122404044153</v>
+        <v>1.016728910266864</v>
       </c>
       <c r="E17">
-        <v>1.031189947611779</v>
+        <v>1.003747918583677</v>
       </c>
       <c r="F17">
-        <v>1.045904398077776</v>
+        <v>1.015275139936273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036994707460124</v>
+        <v>1.041668282641324</v>
       </c>
       <c r="J17">
-        <v>1.037779888521674</v>
+        <v>1.023346786633097</v>
       </c>
       <c r="K17">
-        <v>1.042477398716987</v>
+        <v>1.030449844010531</v>
       </c>
       <c r="L17">
-        <v>1.034572637208087</v>
+        <v>1.017690550792809</v>
       </c>
       <c r="M17">
-        <v>1.049236080905341</v>
+        <v>1.029020538564045</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031759327604229</v>
+        <v>0.9966927495530616</v>
       </c>
       <c r="D18">
-        <v>1.039270460527684</v>
+        <v>1.01744442589589</v>
       </c>
       <c r="E18">
-        <v>1.031351070205123</v>
+        <v>1.004504342305566</v>
       </c>
       <c r="F18">
-        <v>1.046093443787905</v>
+        <v>1.016159918225659</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037037649647065</v>
+        <v>1.041941758115249</v>
       </c>
       <c r="J18">
-        <v>1.037890241809559</v>
+        <v>1.023881285713867</v>
       </c>
       <c r="K18">
-        <v>1.042583186873292</v>
+        <v>1.030968689555947</v>
       </c>
       <c r="L18">
-        <v>1.034691071304335</v>
+        <v>1.018245775272185</v>
       </c>
       <c r="M18">
-        <v>1.049383035358768</v>
+        <v>1.029705421063938</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031824451557762</v>
+        <v>0.9970221984282807</v>
       </c>
       <c r="D19">
-        <v>1.039320956768278</v>
+        <v>1.017687661904198</v>
       </c>
       <c r="E19">
-        <v>1.031406028905587</v>
+        <v>1.004761527627012</v>
       </c>
       <c r="F19">
-        <v>1.046157925889025</v>
+        <v>1.016460717546357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037052274968542</v>
+        <v>1.042034543946084</v>
       </c>
       <c r="J19">
-        <v>1.037927870336363</v>
+        <v>1.024062889273505</v>
       </c>
       <c r="K19">
-        <v>1.042619256757662</v>
+        <v>1.031144966574608</v>
       </c>
       <c r="L19">
-        <v>1.034731460663519</v>
+        <v>1.018434468840749</v>
       </c>
       <c r="M19">
-        <v>1.049433152298162</v>
+        <v>1.029938187315964</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031533258326647</v>
+        <v>0.9955443960316189</v>
       </c>
       <c r="D20">
-        <v>1.039095176259081</v>
+        <v>1.016596945022245</v>
       </c>
       <c r="E20">
-        <v>1.031160319857517</v>
+        <v>1.003608428820824</v>
       </c>
       <c r="F20">
-        <v>1.045869635187516</v>
+        <v>1.015111967862489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036986800573049</v>
+        <v>1.041617758545236</v>
       </c>
       <c r="J20">
-        <v>1.037759590304527</v>
+        <v>1.023248160827475</v>
       </c>
       <c r="K20">
-        <v>1.042457939248397</v>
+        <v>1.030354102830385</v>
       </c>
       <c r="L20">
-        <v>1.034550855191512</v>
+        <v>1.017588123731958</v>
       </c>
       <c r="M20">
-        <v>1.049209054150242</v>
+        <v>1.028894196288151</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030587558418289</v>
+        <v>0.9906600427464666</v>
       </c>
       <c r="D21">
-        <v>1.038362037409663</v>
+        <v>1.012998641962762</v>
       </c>
       <c r="E21">
-        <v>1.030362894261656</v>
+        <v>0.9998072915952543</v>
       </c>
       <c r="F21">
-        <v>1.044933935194754</v>
+        <v>1.010663936552056</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036772772200736</v>
+        <v>1.040230137460313</v>
       </c>
       <c r="J21">
-        <v>1.037212564275208</v>
+        <v>1.020553521432562</v>
       </c>
       <c r="K21">
-        <v>1.041933407092136</v>
+        <v>1.027737865949117</v>
       </c>
       <c r="L21">
-        <v>1.033964138561788</v>
+        <v>1.014792315816577</v>
       </c>
       <c r="M21">
-        <v>1.048481139004957</v>
+        <v>1.025446055166113</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029993732594531</v>
+        <v>0.98752516982182</v>
       </c>
       <c r="D22">
-        <v>1.037901779793103</v>
+        <v>1.010694639988559</v>
       </c>
       <c r="E22">
-        <v>1.029862602705248</v>
+        <v>0.9973756507560244</v>
       </c>
       <c r="F22">
-        <v>1.044346830408847</v>
+        <v>1.00781689885692</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036637314942869</v>
+        <v>1.039331975251679</v>
       </c>
       <c r="J22">
-        <v>1.036868686698398</v>
+        <v>1.018822831162249</v>
       </c>
       <c r="K22">
-        <v>1.041603563640607</v>
+        <v>1.026057169984093</v>
       </c>
       <c r="L22">
-        <v>1.033595598234843</v>
+        <v>1.012999276405558</v>
       </c>
       <c r="M22">
-        <v>1.048023976499875</v>
+        <v>1.023235075842826</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030308457041042</v>
+        <v>0.989193258387816</v>
       </c>
       <c r="D23">
-        <v>1.038145704486191</v>
+        <v>1.011920080957314</v>
       </c>
       <c r="E23">
-        <v>1.030127713572747</v>
+        <v>0.9986687718331545</v>
       </c>
       <c r="F23">
-        <v>1.044657950683712</v>
+        <v>1.009331076666946</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036709207437779</v>
+        <v>1.039810592506683</v>
       </c>
       <c r="J23">
-        <v>1.037050976637711</v>
+        <v>1.019743845556143</v>
       </c>
       <c r="K23">
-        <v>1.041778424115215</v>
+        <v>1.026951610188727</v>
       </c>
       <c r="L23">
-        <v>1.033790934620412</v>
+        <v>1.013953222670089</v>
       </c>
       <c r="M23">
-        <v>1.048266278406111</v>
+        <v>1.024411338884698</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03154912609473</v>
+        <v>0.9956252384345133</v>
       </c>
       <c r="D24">
-        <v>1.039107479089089</v>
+        <v>1.016656587987859</v>
       </c>
       <c r="E24">
-        <v>1.031173706998133</v>
+        <v>1.003671471787424</v>
       </c>
       <c r="F24">
-        <v>1.045885342632375</v>
+        <v>1.015185714641492</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036990373661694</v>
+        <v>1.041640596694217</v>
       </c>
       <c r="J24">
-        <v>1.037768762178035</v>
+        <v>1.023292737483219</v>
       </c>
       <c r="K24">
-        <v>1.042466732164878</v>
+        <v>1.030397375842795</v>
       </c>
       <c r="L24">
-        <v>1.03456069743014</v>
+        <v>1.017634417587519</v>
       </c>
       <c r="M24">
-        <v>1.04922126620796</v>
+        <v>1.028951298929566</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032992163812299</v>
+        <v>1.002827951295608</v>
       </c>
       <c r="D25">
-        <v>1.040226532950654</v>
+        <v>1.021981659095303</v>
       </c>
       <c r="E25">
-        <v>1.032392169956017</v>
+        <v>1.009305545536505</v>
       </c>
       <c r="F25">
-        <v>1.047314849980037</v>
+        <v>1.021773086535697</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037312755847516</v>
+        <v>1.043656804716633</v>
       </c>
       <c r="J25">
-        <v>1.038601926709941</v>
+        <v>1.02726051696976</v>
       </c>
       <c r="K25">
-        <v>1.043265215573219</v>
+        <v>1.034248059190819</v>
       </c>
       <c r="L25">
-        <v>1.035455447736154</v>
+        <v>1.021761102186626</v>
       </c>
       <c r="M25">
-        <v>1.050331625711858</v>
+        <v>1.034042550787335</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
